--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam15-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam15-Itga5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H2">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I2">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J2">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N2">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q2">
-        <v>812.1801763359282</v>
+        <v>2275.290606884773</v>
       </c>
       <c r="R2">
-        <v>7309.621587023354</v>
+        <v>20477.61546196296</v>
       </c>
       <c r="S2">
-        <v>0.0389118831539842</v>
+        <v>0.05248486503402173</v>
       </c>
       <c r="T2">
-        <v>0.03891188315398422</v>
+        <v>0.05248486503402172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H3">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I3">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J3">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q3">
-        <v>2873.171464348547</v>
+        <v>4863.759301336912</v>
       </c>
       <c r="R3">
-        <v>25858.54317913692</v>
+        <v>43773.8337120322</v>
       </c>
       <c r="S3">
-        <v>0.1376548154702193</v>
+        <v>0.1121939104025684</v>
       </c>
       <c r="T3">
-        <v>0.1376548154702193</v>
+        <v>0.1121939104025683</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H4">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I4">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J4">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N4">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q4">
-        <v>1123.589901556319</v>
+        <v>3130.288508415792</v>
       </c>
       <c r="R4">
-        <v>10112.30911400687</v>
+        <v>28172.59657574213</v>
       </c>
       <c r="S4">
-        <v>0.05383164996663564</v>
+        <v>0.07220737842657138</v>
       </c>
       <c r="T4">
-        <v>0.05383164996663567</v>
+        <v>0.07220737842657136</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H5">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I5">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J5">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N5">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q5">
-        <v>298.6664462635513</v>
+        <v>453.966018248949</v>
       </c>
       <c r="R5">
-        <v>2687.998016371962</v>
+        <v>4085.69416424054</v>
       </c>
       <c r="S5">
-        <v>0.01430923112584828</v>
+        <v>0.01047178111039201</v>
       </c>
       <c r="T5">
-        <v>0.01430923112584829</v>
+        <v>0.01047178111039201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H6">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I6">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J6">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N6">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q6">
-        <v>843.2655308513579</v>
+        <v>1722.385193479781</v>
       </c>
       <c r="R6">
-        <v>7589.389777662222</v>
+        <v>15501.46674131803</v>
       </c>
       <c r="S6">
-        <v>0.0404011951538923</v>
+        <v>0.03973081686481984</v>
       </c>
       <c r="T6">
-        <v>0.04040119515389232</v>
+        <v>0.03973081686481984</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H7">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I7">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J7">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N7">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q7">
-        <v>831.4599588326546</v>
+        <v>2195.303278066099</v>
       </c>
       <c r="R7">
-        <v>7483.139629493892</v>
+        <v>19757.7295025949</v>
       </c>
       <c r="S7">
-        <v>0.03983558538854422</v>
+        <v>0.05063977142497814</v>
       </c>
       <c r="T7">
-        <v>0.03983558538854424</v>
+        <v>0.05063977142497813</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>32.583341</v>
       </c>
       <c r="I8">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J8">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N8">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q8">
-        <v>265.3797815626572</v>
+        <v>439.1792283270055</v>
       </c>
       <c r="R8">
-        <v>2388.418034063915</v>
+        <v>3952.613054943049</v>
       </c>
       <c r="S8">
-        <v>0.01271445345807705</v>
+        <v>0.01013068944017138</v>
       </c>
       <c r="T8">
-        <v>0.01271445345807705</v>
+        <v>0.01013068944017138</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>32.583341</v>
       </c>
       <c r="I9">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J9">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q9">
         <v>938.8084538590178</v>
@@ -1013,10 +1013,10 @@
         <v>8449.27608473116</v>
       </c>
       <c r="S9">
-        <v>0.04497869552214367</v>
+        <v>0.02165579853601729</v>
       </c>
       <c r="T9">
-        <v>0.04497869552214368</v>
+        <v>0.02165579853601729</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>32.583341</v>
       </c>
       <c r="I10">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J10">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N10">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q10">
-        <v>367.1328743656669</v>
+        <v>604.2119135934016</v>
       </c>
       <c r="R10">
-        <v>3304.195869291002</v>
+        <v>5437.907222340614</v>
       </c>
       <c r="S10">
-        <v>0.01758948559142668</v>
+        <v>0.01393755181906909</v>
       </c>
       <c r="T10">
-        <v>0.01758948559142669</v>
+        <v>0.01393755181906909</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>32.583341</v>
       </c>
       <c r="I11">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J11">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N11">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q11">
-        <v>97.58922783253622</v>
+        <v>87.62504665469022</v>
       </c>
       <c r="R11">
-        <v>878.3030504928259</v>
+        <v>788.625419892212</v>
       </c>
       <c r="S11">
-        <v>0.004675539666135051</v>
+        <v>0.002021275319009911</v>
       </c>
       <c r="T11">
-        <v>0.004675539666135051</v>
+        <v>0.002021275319009911</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>32.583341</v>
       </c>
       <c r="I12">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J12">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N12">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q12">
-        <v>275.536917665534</v>
+        <v>332.4567850214038</v>
       </c>
       <c r="R12">
-        <v>2479.832258989806</v>
+        <v>2992.111065192634</v>
       </c>
       <c r="S12">
-        <v>0.01320108598707734</v>
+        <v>0.007668888290003307</v>
       </c>
       <c r="T12">
-        <v>0.01320108598707734</v>
+        <v>0.007668888290003306</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>32.583341</v>
       </c>
       <c r="I13">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J13">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N13">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q13">
-        <v>271.6794483319684</v>
+        <v>423.7399814720201</v>
       </c>
       <c r="R13">
-        <v>2445.115034987716</v>
+        <v>3813.65983324818</v>
       </c>
       <c r="S13">
-        <v>0.01301627305966147</v>
+        <v>0.009774547334649166</v>
       </c>
       <c r="T13">
-        <v>0.01301627305966147</v>
+        <v>0.009774547334649164</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H14">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I14">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J14">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N14">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q14">
-        <v>626.4787020815367</v>
+        <v>1556.159608387488</v>
       </c>
       <c r="R14">
-        <v>5638.30831873383</v>
+        <v>14005.43647548739</v>
       </c>
       <c r="S14">
-        <v>0.03001484986229656</v>
+        <v>0.03589643747944751</v>
       </c>
       <c r="T14">
-        <v>0.03001484986229657</v>
+        <v>0.0358964374794475</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H15">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I15">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J15">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q15">
-        <v>2216.233272231814</v>
+        <v>3326.51387332992</v>
       </c>
       <c r="R15">
-        <v>19946.09945008632</v>
+        <v>29938.62485996928</v>
       </c>
       <c r="S15">
-        <v>0.1061806390302579</v>
+        <v>0.07673377244525474</v>
       </c>
       <c r="T15">
-        <v>0.1061806390302579</v>
+        <v>0.07673377244525473</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H16">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I16">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J16">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N16">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q16">
-        <v>866.6859444594227</v>
+        <v>2140.925877624768</v>
       </c>
       <c r="R16">
-        <v>7800.173500134804</v>
+        <v>19268.33289862291</v>
       </c>
       <c r="S16">
-        <v>0.04152327671200959</v>
+        <v>0.04938543032480027</v>
       </c>
       <c r="T16">
-        <v>0.04152327671200961</v>
+        <v>0.04938543032480026</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H17">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I17">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J17">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N17">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q17">
-        <v>230.3776588768947</v>
+        <v>310.484989935744</v>
       </c>
       <c r="R17">
-        <v>2073.398929892052</v>
+        <v>2794.364909421696</v>
       </c>
       <c r="S17">
-        <v>0.01103748749932349</v>
+        <v>0.00716205777958999</v>
       </c>
       <c r="T17">
-        <v>0.01103748749932349</v>
+        <v>0.007162057779589991</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H18">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I18">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J18">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N18">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q18">
-        <v>650.4565251286681</v>
+        <v>1178.006123731008</v>
       </c>
       <c r="R18">
-        <v>5854.108726158012</v>
+        <v>10602.05511357907</v>
       </c>
       <c r="S18">
-        <v>0.03116363713374429</v>
+        <v>0.02717344862506356</v>
       </c>
       <c r="T18">
-        <v>0.0311636371337443</v>
+        <v>0.02717344862506355</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H19">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I19">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J19">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N19">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q19">
-        <v>641.3502459419814</v>
+        <v>1501.453167850272</v>
       </c>
       <c r="R19">
-        <v>5772.152213477832</v>
+        <v>13513.07851065245</v>
       </c>
       <c r="S19">
-        <v>0.03072735158774821</v>
+        <v>0.03463450630485406</v>
       </c>
       <c r="T19">
-        <v>0.03072735158774823</v>
+        <v>0.03463450630485405</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H20">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I20">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J20">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N20">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q20">
-        <v>64.6588794398111</v>
+        <v>64.8206283511449</v>
       </c>
       <c r="R20">
-        <v>581.9299149582999</v>
+        <v>583.3856551603042</v>
       </c>
       <c r="S20">
-        <v>0.003097833257861777</v>
+        <v>0.001495238419275299</v>
       </c>
       <c r="T20">
-        <v>0.003097833257861778</v>
+        <v>0.001495238419275299</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H21">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I21">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J21">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q21">
-        <v>228.7374805936889</v>
+        <v>138.5633699305956</v>
       </c>
       <c r="R21">
-        <v>2058.6373253432</v>
+        <v>1247.07032937536</v>
       </c>
       <c r="S21">
-        <v>0.01095890588951896</v>
+        <v>0.00319628611284239</v>
       </c>
       <c r="T21">
-        <v>0.01095890588951896</v>
+        <v>0.00319628611284239</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H22">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I22">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J22">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N22">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q22">
-        <v>89.45067375600443</v>
+        <v>89.17861631472712</v>
       </c>
       <c r="R22">
-        <v>805.0560638040399</v>
+        <v>802.6075468325441</v>
       </c>
       <c r="S22">
-        <v>0.004285618224445736</v>
+        <v>0.002057112013312283</v>
       </c>
       <c r="T22">
-        <v>0.004285618224445738</v>
+        <v>0.002057112013312283</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H23">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I23">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J23">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N23">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q23">
-        <v>23.77728280539111</v>
+        <v>12.93301280457245</v>
       </c>
       <c r="R23">
-        <v>213.99554524852</v>
+        <v>116.397115241152</v>
       </c>
       <c r="S23">
-        <v>0.001139179306760048</v>
+        <v>0.0002983299933104481</v>
       </c>
       <c r="T23">
-        <v>0.001139179306760049</v>
+        <v>0.0002983299933104481</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H24">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I24">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J24">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N24">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q24">
-        <v>67.13363103867999</v>
+        <v>49.06893658605156</v>
       </c>
       <c r="R24">
-        <v>604.20267934812</v>
+        <v>441.6204292744641</v>
       </c>
       <c r="S24">
-        <v>0.003216399615249072</v>
+        <v>0.001131889045860379</v>
       </c>
       <c r="T24">
-        <v>0.003216399615249073</v>
+        <v>0.001131889045860379</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H25">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I25">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J25">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N25">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q25">
-        <v>66.19377178070222</v>
+        <v>62.54187376108622</v>
       </c>
       <c r="R25">
-        <v>595.74394602632</v>
+        <v>562.876863849776</v>
       </c>
       <c r="S25">
-        <v>0.003171370575273471</v>
+        <v>0.001442673649419971</v>
       </c>
       <c r="T25">
-        <v>0.003171370575273472</v>
+        <v>0.001442673649419971</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H26">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I26">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J26">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N26">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q26">
-        <v>351.35802965039</v>
+        <v>608.6310865223103</v>
       </c>
       <c r="R26">
-        <v>3162.22226685351</v>
+        <v>5477.679778700792</v>
       </c>
       <c r="S26">
-        <v>0.01683370635398909</v>
+        <v>0.01403949031168799</v>
       </c>
       <c r="T26">
-        <v>0.01683370635398909</v>
+        <v>0.01403949031168799</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H27">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I27">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J27">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q27">
-        <v>1242.96540838456</v>
+        <v>1301.036051921605</v>
       </c>
       <c r="R27">
-        <v>11186.68867546104</v>
+        <v>11709.32446729444</v>
       </c>
       <c r="S27">
-        <v>0.05955097913581606</v>
+        <v>0.03001141980847638</v>
       </c>
       <c r="T27">
-        <v>0.05955097913581607</v>
+        <v>0.03001141980847637</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H28">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I28">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J28">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N28">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q28">
-        <v>486.077283647732</v>
+        <v>837.339586530403</v>
       </c>
       <c r="R28">
-        <v>4374.695552829588</v>
+        <v>7536.056278773627</v>
       </c>
       <c r="S28">
-        <v>0.02328816070152817</v>
+        <v>0.01931518332370868</v>
       </c>
       <c r="T28">
-        <v>0.02328816070152818</v>
+        <v>0.01931518332370867</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H29">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I29">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J29">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N29">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q29">
-        <v>129.206372107316</v>
+        <v>121.4340841099676</v>
       </c>
       <c r="R29">
-        <v>1162.857348965844</v>
+        <v>1092.906756989708</v>
       </c>
       <c r="S29">
-        <v>0.006190329930080167</v>
+        <v>0.002801159331364681</v>
       </c>
       <c r="T29">
-        <v>0.006190329930080169</v>
+        <v>0.002801159331364681</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H30">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I30">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J30">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N30">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q30">
-        <v>364.805894091996</v>
+        <v>460.7311121249785</v>
       </c>
       <c r="R30">
-        <v>3283.253046827964</v>
+        <v>4146.580009124807</v>
       </c>
       <c r="S30">
-        <v>0.01747799901843594</v>
+        <v>0.0106278337209691</v>
       </c>
       <c r="T30">
-        <v>0.01747799901843595</v>
+        <v>0.01062783372096909</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H31">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I31">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J31">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N31">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q31">
-        <v>359.698674482056</v>
+        <v>587.2347977583088</v>
       </c>
       <c r="R31">
-        <v>3237.288070338504</v>
+        <v>5285.113179824779</v>
       </c>
       <c r="S31">
-        <v>0.01723331004609451</v>
+        <v>0.0135459351919114</v>
       </c>
       <c r="T31">
-        <v>0.01723331004609452</v>
+        <v>0.01354593519191139</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H32">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I32">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J32">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N32">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O32">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P32">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q32">
-        <v>379.3882609080227</v>
+        <v>1792.958949657451</v>
       </c>
       <c r="R32">
-        <v>3414.494348172204</v>
+        <v>16136.63054691706</v>
       </c>
       <c r="S32">
-        <v>0.01817664615387042</v>
+        <v>0.04135876454619333</v>
       </c>
       <c r="T32">
-        <v>0.01817664615387043</v>
+        <v>0.04135876454619333</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H33">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I33">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J33">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>259.31276</v>
       </c>
       <c r="O33">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P33">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q33">
-        <v>1342.125253619702</v>
+        <v>3832.706354926431</v>
       </c>
       <c r="R33">
-        <v>12079.12728257732</v>
+        <v>34494.35719433788</v>
       </c>
       <c r="S33">
-        <v>0.06430176772162498</v>
+        <v>0.08841027829353597</v>
       </c>
       <c r="T33">
-        <v>0.06430176772162498</v>
+        <v>0.08841027829353597</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H34">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I34">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J34">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N34">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O34">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P34">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q34">
-        <v>524.854990487917</v>
+        <v>2466.7085510709</v>
       </c>
       <c r="R34">
-        <v>4723.694914391253</v>
+        <v>22200.3769596381</v>
       </c>
       <c r="S34">
-        <v>0.02514601643540246</v>
+        <v>0.05690036472241277</v>
       </c>
       <c r="T34">
-        <v>0.02514601643540246</v>
+        <v>0.05690036472241277</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H35">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I35">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J35">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N35">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O35">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P35">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q35">
-        <v>139.5140474256558</v>
+        <v>357.7311982904129</v>
       </c>
       <c r="R35">
-        <v>1255.626426830902</v>
+        <v>3219.580784613716</v>
       </c>
       <c r="S35">
-        <v>0.006684174854227327</v>
+        <v>0.008251901363245079</v>
       </c>
       <c r="T35">
-        <v>0.006684174854227328</v>
+        <v>0.008251901363245081</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H36">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I36">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J36">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N36">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O36">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P36">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q36">
-        <v>393.9089534008179</v>
+        <v>1357.262205567329</v>
       </c>
       <c r="R36">
-        <v>3545.180580607362</v>
+        <v>12215.35985010596</v>
       </c>
       <c r="S36">
-        <v>0.01887233844735098</v>
+        <v>0.03130840669733732</v>
       </c>
       <c r="T36">
-        <v>0.01887233844735099</v>
+        <v>0.03130840669733732</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H37">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I37">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J37">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N37">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O37">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P37">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q37">
-        <v>388.3942959791035</v>
+        <v>1729.927881612481</v>
       </c>
       <c r="R37">
-        <v>3495.548663811932</v>
+        <v>15569.35093451233</v>
       </c>
       <c r="S37">
-        <v>0.01860812896344547</v>
+        <v>0.03990480649385474</v>
       </c>
       <c r="T37">
-        <v>0.01860812896344547</v>
+        <v>0.03990480649385474</v>
       </c>
     </row>
   </sheetData>
